--- a/Documentation/[FHF]_SystemTestCases.xlsx
+++ b/Documentation/[FHF]_SystemTestCases.xlsx
@@ -8,25 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Semester9\SEP490\fu-house-finder\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FEE32EE-BA73-40CF-BF60-EBA960356EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DC37D5-BD34-48F8-9D53-74D66EE7F456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FHF_Guest_001" sheetId="1" r:id="rId1"/>
     <sheet name="FHF_Guest_002" sheetId="6" r:id="rId2"/>
-    <sheet name="FHF_Student_001" sheetId="7" r:id="rId3"/>
-    <sheet name="FHF_Student_002" sheetId="8" r:id="rId4"/>
-    <sheet name="FHF_Landlord_001" sheetId="9" r:id="rId5"/>
-    <sheet name="FHF_Staff_001" sheetId="10" r:id="rId6"/>
-    <sheet name="FHF_Admin_001" sheetId="11" r:id="rId7"/>
+    <sheet name="FHF_Guest_003" sheetId="12" r:id="rId3"/>
+    <sheet name="FHF_Guest_004" sheetId="13" r:id="rId4"/>
+    <sheet name="FHF_Student_001" sheetId="7" r:id="rId5"/>
+    <sheet name="FHF_Student_002" sheetId="8" r:id="rId6"/>
+    <sheet name="FHF_Landlord_001" sheetId="9" r:id="rId7"/>
+    <sheet name="FHF_Staff_001" sheetId="10" r:id="rId8"/>
+    <sheet name="FHF_Admin_001" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="93">
   <si>
     <t>Test Case Description</t>
   </si>
@@ -105,9 +107,6 @@
   </si>
   <si>
     <t>Website is open, displays list of available houses</t>
-  </si>
-  <si>
-    <t>Enter houseName and click Search button</t>
   </si>
   <si>
     <t xml:space="preserve">System displays Houses that name containing searched value </t>
@@ -147,6 +146,548 @@
   </si>
   <si>
     <t>FHF_Guest_001</t>
+  </si>
+  <si>
+    <t>FHF_Guest_002</t>
+  </si>
+  <si>
+    <t>14/12/2022</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">houseName: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xanh</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">campus: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FU - Hòa Lạc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">district: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Huyện Thạch Thất</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">commune: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Xã Thạch Hòa</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">distance-to: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">distance-from: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">rate: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Enter </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>houseName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and click Search button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Select </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>campus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Select </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>district</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">System displays Houses that belongs to the searched campus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">System displays Houses that belongs to the searched district </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Select </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>commune</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">System displays Houses that belongs to the searched commune </t>
+  </si>
+  <si>
+    <t>System displays Houses that has distance in the range</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Select </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Select </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">distance-from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>distance-to</t>
+    </r>
+  </si>
+  <si>
+    <t>System displays Houses that has rate equal or bigger than the selected rate</t>
+  </si>
+  <si>
+    <t>Test the functionalities of role Guest with filter and find landlord</t>
+  </si>
+  <si>
+    <t>Click on Facebook URL of Landlord</t>
+  </si>
+  <si>
+    <t>Opens a new Facebook tab that is the profile of the landlord of the house</t>
+  </si>
+  <si>
+    <t>Click on Phone number of Landlord</t>
+  </si>
+  <si>
+    <t>System displays Phone Number of the landlord of the house</t>
+  </si>
+  <si>
+    <t>FHF_Guest_003</t>
+  </si>
+  <si>
+    <t>Test the functionalities of role Guest with filter, order</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">price-from: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2000000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">price-to: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3000000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">roomType: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Chung cư mini</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">houseUtility: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Khóa vân tay; Chỗ để xe</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">roomUtility: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tủ lạnh; Bếp</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">rate: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">order: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Giá: Thấp đến Cao</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Select </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>price-from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>price-to</t>
+    </r>
+  </si>
+  <si>
+    <t>System displays Houses that has room price per month in the range</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Select </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>roomType</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">System displays Houses that has rooms of the following type </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Select </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>houseUtility</t>
+    </r>
+  </si>
+  <si>
+    <t>System displays Houses that has the selected utilities</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Select </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>roomUtility</t>
+    </r>
+  </si>
+  <si>
+    <t>System displays Houses that rooms has the selected utilities</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Select </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>order</t>
+    </r>
+  </si>
+  <si>
+    <t>System displays Houses in the selected Order</t>
+  </si>
+  <si>
+    <t>Image of House is changed accordingly</t>
+  </si>
+  <si>
+    <t>Click Previous button on Image Carousel</t>
+  </si>
+  <si>
+    <t>Click Next button on Image Carousel</t>
+  </si>
+  <si>
+    <t>Hover on icons on a House card</t>
+  </si>
+  <si>
+    <t>System displays tooltips to show explanation of icon</t>
+  </si>
+  <si>
+    <t>Hover on a House card</t>
+  </si>
+  <si>
+    <t>The selected card is highlighted</t>
+  </si>
+  <si>
+    <t>Hover on icons of a Room in Available Rooms table</t>
+  </si>
+  <si>
+    <t>Test the functionalities of role Guest with tooltips and image carousel</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">order: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Khoảng cách: Gần đến Xa</t>
+    </r>
+  </si>
+  <si>
+    <t>Select a page number in Paging</t>
+  </si>
+  <si>
+    <t>System displays Houses in the selected page</t>
+  </si>
+  <si>
+    <t>Image of Room is changed accordingly</t>
+  </si>
+  <si>
+    <t>FHF_Guest_004</t>
   </si>
 </sst>
 </file>
@@ -351,7 +892,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -393,40 +934,79 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -445,44 +1025,11 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -765,10 +1312,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12:J18"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -786,45 +1333,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="39"/>
       <c r="C1" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="15" t="s">
+      <c r="E1" s="39"/>
+      <c r="F1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="24"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="39"/>
+      <c r="F2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="25" t="s">
+      <c r="G2" s="20"/>
+      <c r="H2" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="26"/>
+      <c r="I2" s="34"/>
       <c r="J2" s="11">
         <v>1</v>
       </c>
@@ -842,25 +1389,25 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="35" t="s">
+      <c r="E4" s="36"/>
+      <c r="F4" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="36"/>
-      <c r="H4" s="25" t="s">
+      <c r="G4" s="32"/>
+      <c r="H4" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="26"/>
+      <c r="I4" s="34"/>
       <c r="J4" s="12" t="s">
         <v>14</v>
       </c>
@@ -881,53 +1428,53 @@
       <c r="A6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
       <c r="E6" s="5"/>
       <c r="F6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>1</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
       <c r="E7" s="2"/>
       <c r="F7" s="6">
         <v>1</v>
       </c>
-      <c r="G7" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
+      <c r="G7" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="2"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
@@ -958,172 +1505,172 @@
       <c r="J10" s="2"/>
     </row>
     <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="31" t="s">
+      <c r="C12" s="37"/>
+      <c r="D12" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="32"/>
-      <c r="F12" s="20" t="s">
+      <c r="E12" s="45"/>
+      <c r="F12" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="42" t="s">
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="43"/>
+      <c r="J12" s="28"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="21"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="45"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="30"/>
     </row>
     <row r="14" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>1</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="15" t="s">
+      <c r="C14" s="41"/>
+      <c r="D14" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15" t="s">
+      <c r="E14" s="20"/>
+      <c r="F14" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="41"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="17"/>
     </row>
     <row r="15" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>2</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" s="41"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="17"/>
     </row>
     <row r="16" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>3</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" s="41"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="17"/>
     </row>
     <row r="17" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>4</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="J17" s="41"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="17"/>
     </row>
     <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>5</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" s="41"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="17"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
@@ -1139,6 +1686,40 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="D12:E13"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="F4:G4"/>
     <mergeCell ref="F20:H20"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="I16:J16"/>
@@ -1154,41 +1735,7 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="F15:H15"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="I12:J13"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="F14:H14"/>
     <mergeCell ref="D20:E20"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B12:C13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="D12:E13"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="I18:J18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1199,17 +1746,1944 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5568D316-0990-49A4-96F5-85F7226B2825}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:C26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="12.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="8.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="39"/>
+      <c r="F1" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="39"/>
+      <c r="F2" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="20"/>
+      <c r="H2" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="34"/>
+      <c r="J2" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="36"/>
+      <c r="C4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="36"/>
+      <c r="F4" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="32"/>
+      <c r="H4" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="34"/>
+      <c r="J4" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>1</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="6">
+        <v>2</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+    </row>
+    <row r="9" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="46"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="6">
+        <v>3</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+    </row>
+    <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="46"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="6">
+        <v>4</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+    </row>
+    <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="46"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="6">
+        <v>5</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+    </row>
+    <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="46"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="6">
+        <v>6</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+    </row>
+    <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="46"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="6">
+        <v>7</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="17" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="37"/>
+      <c r="D17" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="45"/>
+      <c r="F17" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" s="28"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="37"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="30"/>
+    </row>
+    <row r="19" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>1</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="41"/>
+      <c r="D19" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="17"/>
+    </row>
+    <row r="20" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>2</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="24"/>
+      <c r="D20" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="17"/>
+    </row>
+    <row r="21" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <v>3</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="24"/>
+      <c r="D21" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="17"/>
+    </row>
+    <row r="22" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>4</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="24"/>
+      <c r="D22" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" s="17"/>
+    </row>
+    <row r="23" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="6">
+        <v>5</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="17"/>
+    </row>
+    <row r="24" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="6">
+        <v>6</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="24"/>
+      <c r="D24" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="17"/>
+    </row>
+    <row r="25" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="6">
+        <v>7</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="24"/>
+      <c r="D25" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" s="17"/>
+    </row>
+    <row r="26" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="6">
+        <v>8</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" s="17"/>
+    </row>
+    <row r="27" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="6">
+        <v>9</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="22"/>
+      <c r="D27" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" s="17"/>
+    </row>
+    <row r="28" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="6">
+        <v>10</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="22"/>
+      <c r="D28" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" s="17"/>
+    </row>
+    <row r="29" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="6">
+        <v>11</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="22"/>
+      <c r="D29" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" s="17"/>
+    </row>
+    <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="6">
+        <v>12</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="22"/>
+      <c r="D30" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" s="17"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="13"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="13"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="83">
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="D17:E18"/>
+    <mergeCell ref="F17:H18"/>
+    <mergeCell ref="I17:J18"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77E732C1-9009-4B17-BC49-E7C9304BF165}">
+  <dimension ref="A1:J30"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="12.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="8.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="39"/>
+      <c r="F1" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="39"/>
+      <c r="F2" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="20"/>
+      <c r="H2" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="34"/>
+      <c r="J2" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="36"/>
+      <c r="C4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="36"/>
+      <c r="F4" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="32"/>
+      <c r="H4" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="34"/>
+      <c r="J4" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>1</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="6">
+        <v>2</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+    </row>
+    <row r="9" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="46"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="6">
+        <v>3</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+    </row>
+    <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="46"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="6">
+        <v>4</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+    </row>
+    <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="46"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="6">
+        <v>5</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+    </row>
+    <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="46"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="6">
+        <v>6</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+    </row>
+    <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="46"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="6">
+        <v>7</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="17" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="37"/>
+      <c r="D17" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="45"/>
+      <c r="F17" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" s="28"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="37"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="30"/>
+    </row>
+    <row r="19" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>1</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="41"/>
+      <c r="D19" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="17"/>
+    </row>
+    <row r="20" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>2</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="24"/>
+      <c r="D20" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="17"/>
+    </row>
+    <row r="21" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <v>3</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="24"/>
+      <c r="D21" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="17"/>
+    </row>
+    <row r="22" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>4</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="24"/>
+      <c r="D22" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" s="17"/>
+    </row>
+    <row r="23" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="6">
+        <v>5</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="17"/>
+    </row>
+    <row r="24" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="6">
+        <v>6</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="24"/>
+      <c r="D24" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="17"/>
+    </row>
+    <row r="25" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="6">
+        <v>7</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="24"/>
+      <c r="D25" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" s="17"/>
+    </row>
+    <row r="26" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="6">
+        <v>8</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" s="17"/>
+    </row>
+    <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="6">
+        <v>9</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="22"/>
+      <c r="D27" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" s="17"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="13"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="13"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="71">
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="D17:E18"/>
+    <mergeCell ref="F17:H18"/>
+    <mergeCell ref="I17:J18"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD02B36-17D2-4FBD-865B-0B06B47DC806}">
+  <dimension ref="A1:J28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="12.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="8.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="39"/>
+      <c r="F1" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="39"/>
+      <c r="F2" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="20"/>
+      <c r="H2" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="34"/>
+      <c r="J2" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="36"/>
+      <c r="C4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="36"/>
+      <c r="F4" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="32"/>
+      <c r="H4" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="34"/>
+      <c r="J4" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>1</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="37"/>
+      <c r="D12" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="45"/>
+      <c r="F12" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="28"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="37"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="30"/>
+    </row>
+    <row r="14" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>1</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="41"/>
+      <c r="D14" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>2</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="17"/>
+    </row>
+    <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>3</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="17"/>
+    </row>
+    <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>4</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="17"/>
+    </row>
+    <row r="18" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>5</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="D18" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="17"/>
+    </row>
+    <row r="19" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>6</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="17"/>
+    </row>
+    <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>7</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="22"/>
+      <c r="D20" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="17"/>
+    </row>
+    <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <v>8</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="17"/>
+    </row>
+    <row r="22" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>9</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="24"/>
+      <c r="D22" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" s="17"/>
+    </row>
+    <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="6">
+        <v>10</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="17"/>
+    </row>
+    <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="6">
+        <v>11</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="17"/>
+    </row>
+    <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="6">
+        <v>12</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" s="24"/>
+      <c r="F25" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" s="17"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="13"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="13"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="78">
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="D12:E13"/>
+    <mergeCell ref="F12:H13"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0C5D36-0623-4645-868C-5360A26786D7}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1221,7 +3695,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BBC48D-0CC1-48CC-968C-61086643642E}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1233,7 +3707,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E83C2D77-6CC3-4942-948D-9AA9B2163CF8}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1245,7 +3719,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F823E5-2997-470B-BC25-C0CC5A72AE85}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1257,7 +3731,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3039AA2-D3FC-4335-A127-225CD1AD243A}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Documentation/[FHF]_SystemTestCases.xlsx
+++ b/Documentation/[FHF]_SystemTestCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Semester9\SEP490\fu-house-finder\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DC37D5-BD34-48F8-9D53-74D66EE7F456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8341A0BB-F952-49DC-83CA-D7DFEFCD716C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FHF_Guest_001" sheetId="1" r:id="rId1"/>
@@ -19,16 +19,22 @@
     <sheet name="FHF_Guest_004" sheetId="13" r:id="rId4"/>
     <sheet name="FHF_Student_001" sheetId="7" r:id="rId5"/>
     <sheet name="FHF_Student_002" sheetId="8" r:id="rId6"/>
-    <sheet name="FHF_Landlord_001" sheetId="9" r:id="rId7"/>
-    <sheet name="FHF_Staff_001" sheetId="10" r:id="rId8"/>
-    <sheet name="FHF_Admin_001" sheetId="11" r:id="rId9"/>
+    <sheet name="FHF_Student_003" sheetId="14" r:id="rId7"/>
+    <sheet name="FHF_Student_004" sheetId="15" r:id="rId8"/>
+    <sheet name="FHF_Landlord_001" sheetId="9" r:id="rId9"/>
+    <sheet name="FHF_Landlord_002" sheetId="16" r:id="rId10"/>
+    <sheet name="FHF_Staff_001" sheetId="10" r:id="rId11"/>
+    <sheet name="FHF_Admin_001" sheetId="11" r:id="rId12"/>
+    <sheet name="FHF_Admin_002" sheetId="17" r:id="rId13"/>
+    <sheet name="FHF_Admin_003" sheetId="18" r:id="rId14"/>
+    <sheet name="FHF_Admin_004" sheetId="19" r:id="rId15"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="208">
   <si>
     <t>Test Case Description</t>
   </si>
@@ -689,6 +695,351 @@
   <si>
     <t>FHF_Guest_004</t>
   </si>
+  <si>
+    <t>FHF_Studnt_001</t>
+  </si>
+  <si>
+    <t>Test send order of role Student in normal case</t>
+  </si>
+  <si>
+    <t>ThongPQ</t>
+  </si>
+  <si>
+    <t>name: Thông</t>
+  </si>
+  <si>
+    <t>phoneNumber: 0987206969</t>
+  </si>
+  <si>
+    <t>email: thongpqhe150340@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>Wish: phòng trọ gần trường giá dưới 2 triệu</t>
+  </si>
+  <si>
+    <t>Navigate to</t>
+  </si>
+  <si>
+    <t>https://fu-house-finder.vercel.app/home</t>
+  </si>
+  <si>
+    <t>Clike "Đăng ký yêu cầu phòng trọ"</t>
+  </si>
+  <si>
+    <t>System displays modal of order</t>
+  </si>
+  <si>
+    <t>Write name</t>
+  </si>
+  <si>
+    <t>System check regex string not have a number and not have only space then not show error</t>
+  </si>
+  <si>
+    <t>System check regex not have a number and not show error</t>
+  </si>
+  <si>
+    <t>Write phone number</t>
+  </si>
+  <si>
+    <t>System check regex string must be  number and not have only space then not show error</t>
+  </si>
+  <si>
+    <t>Write wish</t>
+  </si>
+  <si>
+    <t>System check string need &gt; 1 characters</t>
+  </si>
+  <si>
+    <t>Click send order</t>
+  </si>
+  <si>
+    <t>System displays alert error user not login</t>
+  </si>
+  <si>
+    <t>Click login</t>
+  </si>
+  <si>
+    <t>System display login papge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login with role student </t>
+  </si>
+  <si>
+    <t>System display home page</t>
+  </si>
+  <si>
+    <t>System displays alert successful</t>
+  </si>
+  <si>
+    <t>FHF_Studnt_002</t>
+  </si>
+  <si>
+    <t>Test send send of Student's screens</t>
+  </si>
+  <si>
+    <t>Report: nhà trọ có kẻ trộm</t>
+  </si>
+  <si>
+    <t>Test send report of Student's screens</t>
+  </si>
+  <si>
+    <t>System display login page</t>
+  </si>
+  <si>
+    <t>Click flag on right hand</t>
+  </si>
+  <si>
+    <t>System show modal send report</t>
+  </si>
+  <si>
+    <t>Write report</t>
+  </si>
+  <si>
+    <t>Click send report button</t>
+  </si>
+  <si>
+    <t>System displays alert success</t>
+  </si>
+  <si>
+    <t>Test rate and comment of Student's screens</t>
+  </si>
+  <si>
+    <t>Click rate and write comment</t>
+  </si>
+  <si>
+    <t>Click post button</t>
+  </si>
+  <si>
+    <t>Test send order of role Student without login</t>
+  </si>
+  <si>
+    <t>FHF_Landlord_001</t>
+  </si>
+  <si>
+    <t>Verify function manage house of Landlord's screens</t>
+  </si>
+  <si>
+    <t>AnNT</t>
+  </si>
+  <si>
+    <t>Google account</t>
+  </si>
+  <si>
+    <t>Houses data</t>
+  </si>
+  <si>
+    <t>Rooms data</t>
+  </si>
+  <si>
+    <t>Website is open, displays homepage</t>
+  </si>
+  <si>
+    <t>click Login to navigate to login page</t>
+  </si>
+  <si>
+    <t>Login page is display</t>
+  </si>
+  <si>
+    <t>login with google account registered as landlord</t>
+  </si>
+  <si>
+    <t>Login success, website navigated to landlord dashboard, list of all houses of logged in landlord is display</t>
+  </si>
+  <si>
+    <t>Click on delete icon of 1 House</t>
+  </si>
+  <si>
+    <t>Confirm box is display</t>
+  </si>
+  <si>
+    <t>Click OK</t>
+  </si>
+  <si>
+    <t>The house is removed from the list</t>
+  </si>
+  <si>
+    <t>Click on edit icon of 1 house</t>
+  </si>
+  <si>
+    <t>Website is navigated to house edit page</t>
+  </si>
+  <si>
+    <t>Change data of fields, then click on button "chỉnh sửa"</t>
+  </si>
+  <si>
+    <t>The house data is updated, Success notification box appear.</t>
+  </si>
+  <si>
+    <t>Click OK on success box</t>
+  </si>
+  <si>
+    <t>Website is navigated back to dashboard</t>
+  </si>
+  <si>
+    <t>Click on button "Thêm mới"</t>
+  </si>
+  <si>
+    <t>Website is navigated to add house page</t>
+  </si>
+  <si>
+    <t>Fill in the form correctly and Click button add</t>
+  </si>
+  <si>
+    <t>success box is display ask if user want to add room immediately</t>
+  </si>
+  <si>
+    <t>Verify function manage rooms of Landlord's screens</t>
+  </si>
+  <si>
+    <t>House data</t>
+  </si>
+  <si>
+    <t>Room data</t>
+  </si>
+  <si>
+    <t>List of Rooms belong to the selected house is displayed</t>
+  </si>
+  <si>
+    <t>Click on delete icon of 1 house</t>
+  </si>
+  <si>
+    <t>Click Ok</t>
+  </si>
+  <si>
+    <t>Room is removed from the list</t>
+  </si>
+  <si>
+    <t>Click on disable switch of a room</t>
+  </si>
+  <si>
+    <t>Number of people in the room is set to full, status set to full</t>
+  </si>
+  <si>
+    <t>Click on enable switch of a room</t>
+  </si>
+  <si>
+    <t>Number of people in the room is set to none, status set to available</t>
+  </si>
+  <si>
+    <t>Website is navigated to add room page</t>
+  </si>
+  <si>
+    <t>FHF_Admin_001</t>
+  </si>
+  <si>
+    <t>Test the functionalities of role Admin in normal case</t>
+  </si>
+  <si>
+    <t>KienNT</t>
+  </si>
+  <si>
+    <t>Email: admin</t>
+  </si>
+  <si>
+    <t>Password: admin@123</t>
+  </si>
+  <si>
+    <t>Verify functionalities of Admin's screens</t>
+  </si>
+  <si>
+    <t>Login with role admin</t>
+  </si>
+  <si>
+    <t>Navigate to https://fu-house-finder.vercel.app/Admin/list-staff</t>
+  </si>
+  <si>
+    <t>Website is open, displays list of staffs</t>
+  </si>
+  <si>
+    <t>Click on update icon on the table</t>
+  </si>
+  <si>
+    <t>Update page is open, displays info of staff</t>
+  </si>
+  <si>
+    <t>Click on "Thêm mới" button on the table</t>
+  </si>
+  <si>
+    <t>Add Staff page is open</t>
+  </si>
+  <si>
+    <t>FHF_Admin_002</t>
+  </si>
+  <si>
+    <t>Test the functionalities of delete account</t>
+  </si>
+  <si>
+    <t>Verify functionalities of delete account</t>
+  </si>
+  <si>
+    <t>Click on delete icon on the table</t>
+  </si>
+  <si>
+    <t>Opens a verify modal to delete account of staff</t>
+  </si>
+  <si>
+    <t>Click on verify button on the modal</t>
+  </si>
+  <si>
+    <t>Delete account from system</t>
+  </si>
+  <si>
+    <t>FHF_Admin_003</t>
+  </si>
+  <si>
+    <t>Test the functionalities of add account</t>
+  </si>
+  <si>
+    <t>Name: Trung Lê</t>
+  </si>
+  <si>
+    <t>Email: trungle@gmail.com</t>
+  </si>
+  <si>
+    <t>Password: trungle123</t>
+  </si>
+  <si>
+    <t>Role: Staff of Admission Department</t>
+  </si>
+  <si>
+    <t>Verify functionalities of add account</t>
+  </si>
+  <si>
+    <t>https://fu-house-finder.vercel.app/Admin/add-staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on "Thêm mới" button </t>
+  </si>
+  <si>
+    <t>Add account to the system and show success modal</t>
+  </si>
+  <si>
+    <t>FHF_Admin_004</t>
+  </si>
+  <si>
+    <t>Test the functionalities of update account</t>
+  </si>
+  <si>
+    <t>Name: Trung Kiên Lê</t>
+  </si>
+  <si>
+    <t>Email: trungkienle@gmail.com</t>
+  </si>
+  <si>
+    <t>Password: trungkienle123</t>
+  </si>
+  <si>
+    <t>Role: Head of Admission Department</t>
+  </si>
+  <si>
+    <t>Verify functionalities of update account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on "Chỉnh sửa" button </t>
+  </si>
+  <si>
+    <t>Update account from system and show success modal</t>
+  </si>
 </sst>
 </file>
 
@@ -697,7 +1048,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmmm\ d\,\ yyyy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -753,8 +1104,55 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF00B050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -778,8 +1176,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6E0B4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -887,12 +1297,187 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -934,6 +1519,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -944,92 +1535,411 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1314,60 +2224,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="12.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="8.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="3.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="2" width="9.109375" style="1"/>
+    <col min="3" max="3" width="11.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="1"/>
+    <col min="5" max="5" width="12.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="1"/>
+    <col min="7" max="7" width="8.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="3.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="39"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="20" t="s">
+      <c r="E1" s="26"/>
+      <c r="F1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="20" t="s">
+      <c r="E2" s="26"/>
+      <c r="F2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="20"/>
+      <c r="G2" s="15"/>
       <c r="H2" s="33" t="s">
         <v>9</v>
       </c>
@@ -1376,7 +2286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1388,22 +2298,22 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="35" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="36"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="31" t="s">
+      <c r="E4" s="21"/>
+      <c r="F4" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="32"/>
+      <c r="G4" s="41"/>
       <c r="H4" s="33" t="s">
         <v>12</v>
       </c>
@@ -1412,7 +2322,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1424,15 +2334,15 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
       <c r="E6" s="5"/>
       <c r="F6" s="9" t="s">
         <v>22</v>
@@ -1440,43 +2350,43 @@
       <c r="G6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>1</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
       <c r="E7" s="2"/>
       <c r="F7" s="6">
         <v>1</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
       <c r="E8" s="2"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1488,7 +2398,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>17</v>
       </c>
@@ -1504,175 +2414,175 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
+    <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="44" t="s">
+      <c r="C12" s="23"/>
+      <c r="D12" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="45"/>
-      <c r="F12" s="18" t="s">
+      <c r="E12" s="32"/>
+      <c r="F12" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="27" t="s">
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="28"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="37"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="30"/>
-    </row>
-    <row r="14" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J12" s="37"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="23"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="39"/>
+    </row>
+    <row r="14" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>1</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="20" t="s">
+      <c r="C14" s="28"/>
+      <c r="D14" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20" t="s">
+      <c r="E14" s="15"/>
+      <c r="F14" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="17"/>
-    </row>
-    <row r="15" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="19"/>
+    </row>
+    <row r="15" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>2</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="20" t="s">
+      <c r="C15" s="45"/>
+      <c r="D15" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20" t="s">
+      <c r="E15" s="15"/>
+      <c r="F15" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" s="17"/>
-    </row>
-    <row r="16" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="19"/>
+    </row>
+    <row r="16" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>3</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="20" t="s">
+      <c r="C16" s="16"/>
+      <c r="D16" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20" t="s">
+      <c r="E16" s="15"/>
+      <c r="F16" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" s="17"/>
-    </row>
-    <row r="17" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="19"/>
+    </row>
+    <row r="17" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>4</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="20" t="s">
+      <c r="C17" s="16"/>
+      <c r="D17" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20" t="s">
+      <c r="E17" s="15"/>
+      <c r="F17" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J17" s="17"/>
-    </row>
-    <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="19"/>
+    </row>
+    <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>5</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="20" t="s">
+      <c r="C18" s="16"/>
+      <c r="D18" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20" t="s">
+      <c r="E18" s="15"/>
+      <c r="F18" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" s="17"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="19"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="13"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B19" s="17"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B20" s="17"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -1686,40 +2596,6 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B12:C13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="D12:E13"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="I12:J13"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="F4:G4"/>
     <mergeCell ref="F20:H20"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="I16:J16"/>
@@ -1736,11 +2612,2138 @@
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="D12:E13"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="I18:J18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{977B9F0E-CF8D-4F68-8AAD-2FFC68DDF1C9}">
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="61"/>
+      <c r="F1" s="64" t="s">
+        <v>157</v>
+      </c>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="66"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="61"/>
+      <c r="C2" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="61"/>
+      <c r="F2" s="64" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" s="66"/>
+      <c r="H2" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="68"/>
+      <c r="J2" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+    </row>
+    <row r="4" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="68"/>
+      <c r="C4" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="68"/>
+      <c r="F4" s="135" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="136"/>
+      <c r="H4" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="68"/>
+      <c r="J4" s="50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="72"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="61"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="57">
+        <v>1</v>
+      </c>
+      <c r="B7" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="65"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="57">
+        <v>1</v>
+      </c>
+      <c r="G7" s="64" t="s">
+        <v>135</v>
+      </c>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="66"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="141"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="57">
+        <v>2</v>
+      </c>
+      <c r="G8" s="135" t="s">
+        <v>158</v>
+      </c>
+      <c r="H8" s="144"/>
+      <c r="I8" s="144"/>
+      <c r="J8" s="144"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="55"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="57">
+        <v>3</v>
+      </c>
+      <c r="G9" s="64" t="s">
+        <v>159</v>
+      </c>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="66"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="142"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="143" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="59"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="98" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="100" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="101"/>
+      <c r="D13" s="104" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="105"/>
+      <c r="F13" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="108"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="108"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="99"/>
+      <c r="B14" s="102"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="102"/>
+      <c r="J14" s="109"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="75">
+        <v>1</v>
+      </c>
+      <c r="B15" s="110" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="111"/>
+      <c r="D15" s="78" t="s">
+        <v>138</v>
+      </c>
+      <c r="E15" s="114"/>
+      <c r="F15" s="78" t="s">
+        <v>138</v>
+      </c>
+      <c r="G15" s="79"/>
+      <c r="H15" s="114"/>
+      <c r="I15" s="116" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="117"/>
+      <c r="K15" s="94"/>
+    </row>
+    <row r="16" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="77"/>
+      <c r="B16" s="112" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="113"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="118"/>
+      <c r="J16" s="119"/>
+      <c r="K16" s="94"/>
+    </row>
+    <row r="17" spans="1:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="57">
+        <v>2</v>
+      </c>
+      <c r="B17" s="64" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" s="66"/>
+      <c r="D17" s="64" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17" s="66"/>
+      <c r="F17" s="64" t="s">
+        <v>140</v>
+      </c>
+      <c r="G17" s="65"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="120" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="121"/>
+    </row>
+    <row r="18" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="57">
+        <v>3</v>
+      </c>
+      <c r="B18" s="64" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" s="66"/>
+      <c r="D18" s="64" t="s">
+        <v>142</v>
+      </c>
+      <c r="E18" s="66"/>
+      <c r="F18" s="64" t="s">
+        <v>142</v>
+      </c>
+      <c r="G18" s="65"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="120" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="121"/>
+    </row>
+    <row r="19" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="57">
+        <v>4</v>
+      </c>
+      <c r="B19" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="66"/>
+      <c r="D19" s="64" t="s">
+        <v>160</v>
+      </c>
+      <c r="E19" s="66"/>
+      <c r="F19" s="64" t="s">
+        <v>160</v>
+      </c>
+      <c r="G19" s="65"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="120" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="121"/>
+    </row>
+    <row r="20" spans="1:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="57">
+        <v>5</v>
+      </c>
+      <c r="B20" s="64" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" s="66"/>
+      <c r="D20" s="64" t="s">
+        <v>144</v>
+      </c>
+      <c r="E20" s="66"/>
+      <c r="F20" s="64" t="s">
+        <v>146</v>
+      </c>
+      <c r="G20" s="65"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="120" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="121"/>
+    </row>
+    <row r="21" spans="1:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="57">
+        <v>6</v>
+      </c>
+      <c r="B21" s="64" t="s">
+        <v>162</v>
+      </c>
+      <c r="C21" s="66"/>
+      <c r="D21" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="E21" s="66"/>
+      <c r="F21" s="64" t="s">
+        <v>148</v>
+      </c>
+      <c r="G21" s="65"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="120" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="121"/>
+    </row>
+    <row r="22" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="57">
+        <v>7</v>
+      </c>
+      <c r="B22" s="64" t="s">
+        <v>164</v>
+      </c>
+      <c r="C22" s="66"/>
+      <c r="D22" s="64" t="s">
+        <v>165</v>
+      </c>
+      <c r="E22" s="66"/>
+      <c r="F22" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22" s="65"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="120" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" s="121"/>
+    </row>
+    <row r="23" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="57">
+        <v>8</v>
+      </c>
+      <c r="B23" s="64" t="s">
+        <v>166</v>
+      </c>
+      <c r="C23" s="66"/>
+      <c r="D23" s="64" t="s">
+        <v>167</v>
+      </c>
+      <c r="E23" s="66"/>
+      <c r="F23" s="64" t="s">
+        <v>152</v>
+      </c>
+      <c r="G23" s="65"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="120" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="121"/>
+    </row>
+    <row r="24" spans="1:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="57">
+        <v>9</v>
+      </c>
+      <c r="B24" s="64" t="s">
+        <v>153</v>
+      </c>
+      <c r="C24" s="66"/>
+      <c r="D24" s="64" t="s">
+        <v>168</v>
+      </c>
+      <c r="E24" s="66"/>
+      <c r="F24" s="64" t="s">
+        <v>154</v>
+      </c>
+      <c r="G24" s="65"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="120" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="121"/>
+    </row>
+    <row r="25" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="57">
+        <v>10</v>
+      </c>
+      <c r="B25" s="64" t="s">
+        <v>155</v>
+      </c>
+      <c r="C25" s="66"/>
+      <c r="D25" s="64" t="s">
+        <v>156</v>
+      </c>
+      <c r="E25" s="66"/>
+      <c r="F25" s="64" t="s">
+        <v>156</v>
+      </c>
+      <c r="G25" s="65"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="120" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" s="121"/>
+    </row>
+  </sheetData>
+  <mergeCells count="66">
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="F15:H16"/>
+    <mergeCell ref="I15:J16"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="D13:E14"/>
+    <mergeCell ref="F13:H14"/>
+    <mergeCell ref="I13:J14"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F823E5-2997-470B-BC25-C0CC5A72AE85}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3039AA2-D3FC-4335-A127-225CD1AD243A}">
+  <dimension ref="A1:L20"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="61"/>
+      <c r="F1" s="64" t="s">
+        <v>170</v>
+      </c>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="66"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="61"/>
+      <c r="C2" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="61"/>
+      <c r="F2" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="66"/>
+      <c r="H2" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="68"/>
+      <c r="J2" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+    </row>
+    <row r="4" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="68"/>
+      <c r="C4" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="68"/>
+      <c r="F4" s="69">
+        <v>44663</v>
+      </c>
+      <c r="G4" s="70"/>
+      <c r="H4" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="68"/>
+      <c r="J4" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="145"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="72"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="61"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="75">
+        <v>1</v>
+      </c>
+      <c r="B7" s="78" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="75">
+        <v>1</v>
+      </c>
+      <c r="G7" s="146" t="s">
+        <v>172</v>
+      </c>
+      <c r="H7" s="147"/>
+      <c r="I7" s="147"/>
+      <c r="J7" s="147"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="94"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="77"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="148" t="s">
+        <v>173</v>
+      </c>
+      <c r="H8" s="149"/>
+      <c r="I8" s="149"/>
+      <c r="J8" s="149"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="94"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="57"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="47"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="59"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="98" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="100" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="101"/>
+      <c r="D13" s="104" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="105"/>
+      <c r="F13" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="108"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="108"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="99"/>
+      <c r="B14" s="102"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="102"/>
+      <c r="J14" s="109"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="75">
+        <v>1</v>
+      </c>
+      <c r="B15" s="110" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="111"/>
+      <c r="D15" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="114"/>
+      <c r="F15" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="79"/>
+      <c r="H15" s="114"/>
+      <c r="I15" s="116" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="117"/>
+      <c r="K15" s="150"/>
+      <c r="L15" s="150"/>
+    </row>
+    <row r="16" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="77"/>
+      <c r="B16" s="112" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="113"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="118"/>
+      <c r="J16" s="119"/>
+      <c r="K16" s="150"/>
+      <c r="L16" s="150"/>
+    </row>
+    <row r="17" spans="1:12" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="57">
+        <v>2</v>
+      </c>
+      <c r="B17" s="151" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" s="152"/>
+      <c r="D17" s="64" t="s">
+        <v>176</v>
+      </c>
+      <c r="E17" s="66"/>
+      <c r="F17" s="64" t="s">
+        <v>176</v>
+      </c>
+      <c r="G17" s="65"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="120" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="121"/>
+      <c r="K17" s="145"/>
+      <c r="L17" s="145"/>
+    </row>
+    <row r="18" spans="1:12" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="57">
+        <v>3</v>
+      </c>
+      <c r="B18" s="151" t="s">
+        <v>176</v>
+      </c>
+      <c r="C18" s="152"/>
+      <c r="D18" s="64" t="s">
+        <v>177</v>
+      </c>
+      <c r="E18" s="66"/>
+      <c r="F18" s="64" t="s">
+        <v>177</v>
+      </c>
+      <c r="G18" s="65"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="120" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="121"/>
+      <c r="K18" s="145"/>
+      <c r="L18" s="145"/>
+    </row>
+    <row r="19" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="57">
+        <v>4</v>
+      </c>
+      <c r="B19" s="64" t="s">
+        <v>178</v>
+      </c>
+      <c r="C19" s="66"/>
+      <c r="D19" s="64" t="s">
+        <v>179</v>
+      </c>
+      <c r="E19" s="66"/>
+      <c r="F19" s="64" t="s">
+        <v>179</v>
+      </c>
+      <c r="G19" s="65"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="120" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="121"/>
+    </row>
+    <row r="20" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="57">
+        <v>5</v>
+      </c>
+      <c r="B20" s="64" t="s">
+        <v>180</v>
+      </c>
+      <c r="C20" s="66"/>
+      <c r="D20" s="64" t="s">
+        <v>181</v>
+      </c>
+      <c r="E20" s="66"/>
+      <c r="F20" s="64" t="s">
+        <v>181</v>
+      </c>
+      <c r="G20" s="65"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="120" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="121"/>
+    </row>
+  </sheetData>
+  <mergeCells count="52">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="F15:H16"/>
+    <mergeCell ref="I15:J16"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="D13:E14"/>
+    <mergeCell ref="F13:H14"/>
+    <mergeCell ref="I13:J14"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314F70AC-7810-46FC-9694-20EC55F658B4}">
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="61"/>
+      <c r="F1" s="64" t="s">
+        <v>183</v>
+      </c>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="66"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="61"/>
+      <c r="C2" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="61"/>
+      <c r="F2" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="66"/>
+      <c r="H2" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="68"/>
+      <c r="J2" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+    </row>
+    <row r="4" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="68"/>
+      <c r="C4" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="68"/>
+      <c r="F4" s="69">
+        <v>44663</v>
+      </c>
+      <c r="G4" s="70"/>
+      <c r="H4" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="68"/>
+      <c r="J4" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="145"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="72"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="61"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="57">
+        <v>1</v>
+      </c>
+      <c r="B7" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="65"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="154"/>
+      <c r="I7" s="154"/>
+      <c r="J7" s="155"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="57"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="66"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="47"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="59"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="98" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="100" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="101"/>
+      <c r="D12" s="104" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="105"/>
+      <c r="F12" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="108"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="108"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="99"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="109"/>
+    </row>
+    <row r="14" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="57">
+        <v>1</v>
+      </c>
+      <c r="B14" s="64" t="s">
+        <v>185</v>
+      </c>
+      <c r="C14" s="66"/>
+      <c r="D14" s="64" t="s">
+        <v>186</v>
+      </c>
+      <c r="E14" s="66"/>
+      <c r="F14" s="64" t="s">
+        <v>186</v>
+      </c>
+      <c r="G14" s="65"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="120" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="121"/>
+    </row>
+    <row r="15" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="57">
+        <v>2</v>
+      </c>
+      <c r="B15" s="64" t="s">
+        <v>187</v>
+      </c>
+      <c r="C15" s="66"/>
+      <c r="D15" s="64" t="s">
+        <v>188</v>
+      </c>
+      <c r="E15" s="66"/>
+      <c r="F15" s="64" t="s">
+        <v>188</v>
+      </c>
+      <c r="G15" s="65"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="120" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="121"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="D12:E13"/>
+    <mergeCell ref="F12:H13"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73F90BD4-B5C5-4546-99CB-9F58EE9547EE}">
+  <dimension ref="A1:L19"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7:K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="D1" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="61"/>
+      <c r="F1" s="64" t="s">
+        <v>190</v>
+      </c>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="66"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="61"/>
+      <c r="C2" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="61"/>
+      <c r="F2" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="66"/>
+      <c r="H2" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="68"/>
+      <c r="J2" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+    </row>
+    <row r="4" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="68"/>
+      <c r="C4" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="68"/>
+      <c r="F4" s="69">
+        <v>44663</v>
+      </c>
+      <c r="G4" s="70"/>
+      <c r="H4" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="68"/>
+      <c r="J4" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="145"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="72"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="61"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="75">
+        <v>1</v>
+      </c>
+      <c r="B7" s="78" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="75">
+        <v>1</v>
+      </c>
+      <c r="G7" s="146" t="s">
+        <v>191</v>
+      </c>
+      <c r="H7" s="147"/>
+      <c r="I7" s="147"/>
+      <c r="J7" s="147"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="94"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="76"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="156" t="s">
+        <v>192</v>
+      </c>
+      <c r="H8" s="157"/>
+      <c r="I8" s="157"/>
+      <c r="J8" s="157"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="94"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="76"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="156" t="s">
+        <v>193</v>
+      </c>
+      <c r="H9" s="157"/>
+      <c r="I9" s="157"/>
+      <c r="J9" s="157"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="94"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="77"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="148" t="s">
+        <v>194</v>
+      </c>
+      <c r="H10" s="149"/>
+      <c r="I10" s="149"/>
+      <c r="J10" s="149"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="94"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="57"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="47"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="59"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="98" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="100" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="101"/>
+      <c r="D15" s="104" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="105"/>
+      <c r="F15" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="108"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="108"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="99"/>
+      <c r="B16" s="102"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="109"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="102"/>
+      <c r="J16" s="109"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="75">
+        <v>1</v>
+      </c>
+      <c r="B17" s="110" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="111"/>
+      <c r="D17" s="78" t="s">
+        <v>181</v>
+      </c>
+      <c r="E17" s="114"/>
+      <c r="F17" s="78" t="s">
+        <v>181</v>
+      </c>
+      <c r="G17" s="79"/>
+      <c r="H17" s="114"/>
+      <c r="I17" s="116" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="117"/>
+      <c r="K17" s="158"/>
+      <c r="L17" s="158"/>
+    </row>
+    <row r="18" spans="1:12" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="77"/>
+      <c r="B18" s="112" t="s">
+        <v>196</v>
+      </c>
+      <c r="C18" s="113"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="115"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="119"/>
+      <c r="K18" s="158"/>
+      <c r="L18" s="158"/>
+    </row>
+    <row r="19" spans="1:12" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="57">
+        <v>2</v>
+      </c>
+      <c r="B19" s="64" t="s">
+        <v>197</v>
+      </c>
+      <c r="C19" s="66"/>
+      <c r="D19" s="64" t="s">
+        <v>198</v>
+      </c>
+      <c r="E19" s="66"/>
+      <c r="F19" s="64" t="s">
+        <v>198</v>
+      </c>
+      <c r="G19" s="65"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="120" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="121"/>
+    </row>
+  </sheetData>
+  <mergeCells count="42">
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D17:E18"/>
+    <mergeCell ref="F17:H18"/>
+    <mergeCell ref="I17:J18"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="L7:L10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="F15:H16"/>
+    <mergeCell ref="I15:J16"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D5D7005-BABC-423A-B6E0-F668042909BF}">
+  <dimension ref="A1:L19"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="46" t="s">
+        <v>199</v>
+      </c>
+      <c r="D1" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="61"/>
+      <c r="F1" s="64" t="s">
+        <v>200</v>
+      </c>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="66"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="61"/>
+      <c r="C2" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="61"/>
+      <c r="F2" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="66"/>
+      <c r="H2" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="68"/>
+      <c r="J2" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+    </row>
+    <row r="4" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="68"/>
+      <c r="C4" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="68"/>
+      <c r="F4" s="69">
+        <v>44663</v>
+      </c>
+      <c r="G4" s="70"/>
+      <c r="H4" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="68"/>
+      <c r="J4" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="145"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="72"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="61"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="75">
+        <v>1</v>
+      </c>
+      <c r="B7" s="78" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="75">
+        <v>1</v>
+      </c>
+      <c r="G7" s="146" t="s">
+        <v>201</v>
+      </c>
+      <c r="H7" s="147"/>
+      <c r="I7" s="147"/>
+      <c r="J7" s="147"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="94"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="76"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="156" t="s">
+        <v>202</v>
+      </c>
+      <c r="H8" s="157"/>
+      <c r="I8" s="157"/>
+      <c r="J8" s="157"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="94"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="76"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="156" t="s">
+        <v>203</v>
+      </c>
+      <c r="H9" s="157"/>
+      <c r="I9" s="157"/>
+      <c r="J9" s="157"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="94"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="77"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="148" t="s">
+        <v>204</v>
+      </c>
+      <c r="H10" s="149"/>
+      <c r="I10" s="149"/>
+      <c r="J10" s="149"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="94"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="57"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="47"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>205</v>
+      </c>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="59"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="98" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="100" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="101"/>
+      <c r="D15" s="104" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="105"/>
+      <c r="F15" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="108"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="108"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="99"/>
+      <c r="B16" s="102"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="109"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="102"/>
+      <c r="J16" s="109"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="75">
+        <v>1</v>
+      </c>
+      <c r="B17" s="110" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="111"/>
+      <c r="D17" s="78" t="s">
+        <v>181</v>
+      </c>
+      <c r="E17" s="114"/>
+      <c r="F17" s="78" t="s">
+        <v>181</v>
+      </c>
+      <c r="G17" s="79"/>
+      <c r="H17" s="114"/>
+      <c r="I17" s="116" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="117"/>
+      <c r="K17" s="158"/>
+      <c r="L17" s="158"/>
+    </row>
+    <row r="18" spans="1:12" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="77"/>
+      <c r="B18" s="112" t="s">
+        <v>196</v>
+      </c>
+      <c r="C18" s="113"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="115"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="119"/>
+      <c r="K18" s="158"/>
+      <c r="L18" s="158"/>
+    </row>
+    <row r="19" spans="1:12" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="57">
+        <v>2</v>
+      </c>
+      <c r="B19" s="64" t="s">
+        <v>206</v>
+      </c>
+      <c r="C19" s="66"/>
+      <c r="D19" s="64" t="s">
+        <v>207</v>
+      </c>
+      <c r="E19" s="66"/>
+      <c r="F19" s="64" t="s">
+        <v>207</v>
+      </c>
+      <c r="G19" s="65"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="120" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="121"/>
+    </row>
+  </sheetData>
+  <mergeCells count="42">
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D17:E18"/>
+    <mergeCell ref="F17:H18"/>
+    <mergeCell ref="I17:J18"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="L7:L10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="F15:H16"/>
+    <mergeCell ref="I15:J16"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1752,55 +4755,55 @@
       <selection activeCell="B26" sqref="B26:C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="12.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="8.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="3.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="2" width="9.109375" style="1"/>
+    <col min="3" max="3" width="11.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="1"/>
+    <col min="5" max="5" width="12.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="1"/>
+    <col min="7" max="7" width="8.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="3.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="39"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="20" t="s">
+      <c r="E1" s="26"/>
+      <c r="F1" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="20" t="s">
+      <c r="E2" s="26"/>
+      <c r="F2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="20"/>
+      <c r="G2" s="15"/>
       <c r="H2" s="33" t="s">
         <v>9</v>
       </c>
@@ -1809,7 +4812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1821,22 +4824,22 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="35" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="36"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="31" t="s">
+      <c r="E4" s="21"/>
+      <c r="F4" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="32"/>
+      <c r="G4" s="41"/>
       <c r="H4" s="33" t="s">
         <v>12</v>
       </c>
@@ -1845,7 +4848,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1857,15 +4860,15 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
       <c r="E6" s="5"/>
       <c r="F6" s="9" t="s">
         <v>22</v>
@@ -1873,127 +4876,127 @@
       <c r="G6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>1</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
       <c r="E7" s="2"/>
       <c r="F7" s="6">
         <v>1</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
       <c r="E8" s="2"/>
       <c r="F8" s="6">
         <v>2</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-    </row>
-    <row r="9" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="46"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+    </row>
+    <row r="9" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="6">
         <v>3</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-    </row>
-    <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="46"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+    </row>
+    <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="13"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="6">
         <v>4</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-    </row>
-    <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="46"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+    </row>
+    <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="13"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="6">
         <v>5</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-    </row>
-    <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="46"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+    </row>
+    <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="6">
         <v>6</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-    </row>
-    <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="46"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+    </row>
+    <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="6">
         <v>7</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2005,7 +5008,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>17</v>
       </c>
@@ -2021,329 +5024,329 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="17" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="18" t="s">
+    <row r="17" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="44" t="s">
+      <c r="C17" s="23"/>
+      <c r="D17" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="45"/>
-      <c r="F17" s="18" t="s">
+      <c r="E17" s="32"/>
+      <c r="F17" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="27" t="s">
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="J17" s="28"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="37"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="30"/>
-    </row>
-    <row r="19" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J17" s="37"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="23"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="39"/>
+    </row>
+    <row r="19" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>1</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="20" t="s">
+      <c r="C19" s="28"/>
+      <c r="D19" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20" t="s">
+      <c r="E19" s="15"/>
+      <c r="F19" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19" s="17"/>
-    </row>
-    <row r="20" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="19"/>
+    </row>
+    <row r="20" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>2</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="20" t="s">
+      <c r="C20" s="45"/>
+      <c r="D20" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20" t="s">
+      <c r="E20" s="15"/>
+      <c r="F20" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20" s="17"/>
-    </row>
-    <row r="21" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="19"/>
+    </row>
+    <row r="21" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>3</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="20" t="s">
+      <c r="C21" s="45"/>
+      <c r="D21" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20" t="s">
+      <c r="E21" s="15"/>
+      <c r="F21" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21" s="17"/>
-    </row>
-    <row r="22" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="19"/>
+    </row>
+    <row r="22" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>4</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="20" t="s">
+      <c r="C22" s="45"/>
+      <c r="D22" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20" t="s">
+      <c r="E22" s="15"/>
+      <c r="F22" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J22" s="17"/>
-    </row>
-    <row r="23" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" s="19"/>
+    </row>
+    <row r="23" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>5</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="20" t="s">
+      <c r="C23" s="45"/>
+      <c r="D23" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20" t="s">
+      <c r="E23" s="15"/>
+      <c r="F23" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23" s="17"/>
-    </row>
-    <row r="24" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="19"/>
+    </row>
+    <row r="24" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>6</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="20" t="s">
+      <c r="C24" s="45"/>
+      <c r="D24" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20" t="s">
+      <c r="E24" s="15"/>
+      <c r="F24" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J24" s="17"/>
-    </row>
-    <row r="25" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="19"/>
+    </row>
+    <row r="25" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>7</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="20" t="s">
+      <c r="C25" s="45"/>
+      <c r="D25" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20" t="s">
+      <c r="E25" s="15"/>
+      <c r="F25" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J25" s="17"/>
-    </row>
-    <row r="26" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" s="19"/>
+    </row>
+    <row r="26" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>8</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="20" t="s">
+      <c r="C26" s="16"/>
+      <c r="D26" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20" t="s">
+      <c r="E26" s="15"/>
+      <c r="F26" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J26" s="17"/>
-    </row>
-    <row r="27" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" s="19"/>
+    </row>
+    <row r="27" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>9</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="20" t="s">
+      <c r="C27" s="16"/>
+      <c r="D27" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20" t="s">
+      <c r="E27" s="15"/>
+      <c r="F27" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J27" s="17"/>
-    </row>
-    <row r="28" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" s="19"/>
+    </row>
+    <row r="28" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>10</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="20" t="s">
+      <c r="C28" s="16"/>
+      <c r="D28" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20" t="s">
+      <c r="E28" s="15"/>
+      <c r="F28" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J28" s="17"/>
-    </row>
-    <row r="29" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" s="19"/>
+    </row>
+    <row r="29" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>11</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="20" t="s">
+      <c r="C29" s="16"/>
+      <c r="D29" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20" t="s">
+      <c r="E29" s="15"/>
+      <c r="F29" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J29" s="17"/>
-    </row>
-    <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" s="19"/>
+    </row>
+    <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>12</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="20" t="s">
+      <c r="C30" s="16"/>
+      <c r="D30" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20" t="s">
+      <c r="E30" s="15"/>
+      <c r="F30" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J30" s="17"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" s="19"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="13"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B31" s="17"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="13"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B32" s="17"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -2357,32 +5360,45 @@
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="D17:E18"/>
+    <mergeCell ref="F17:H18"/>
+    <mergeCell ref="I17:J18"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:J27"/>
     <mergeCell ref="G10:J10"/>
     <mergeCell ref="G11:J11"/>
     <mergeCell ref="G12:J12"/>
@@ -2399,47 +5415,34 @@
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="F31:H31"/>
     <mergeCell ref="I31:J31"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:J25"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="D17:E18"/>
-    <mergeCell ref="F17:H18"/>
-    <mergeCell ref="I17:J18"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2455,55 +5458,55 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="12.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="8.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="3.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="2" width="9.109375" style="1"/>
+    <col min="3" max="3" width="11.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="1"/>
+    <col min="5" max="5" width="12.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="1"/>
+    <col min="7" max="7" width="8.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="3.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="39"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="7" t="s">
         <v>60</v>
       </c>
       <c r="D1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="20" t="s">
+      <c r="E1" s="26"/>
+      <c r="F1" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="20" t="s">
+      <c r="E2" s="26"/>
+      <c r="F2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="20"/>
+      <c r="G2" s="15"/>
       <c r="H2" s="33" t="s">
         <v>9</v>
       </c>
@@ -2512,7 +5515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2524,22 +5527,22 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="35" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="36"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="31" t="s">
+      <c r="E4" s="21"/>
+      <c r="F4" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="32"/>
+      <c r="G4" s="41"/>
       <c r="H4" s="33" t="s">
         <v>12</v>
       </c>
@@ -2548,7 +5551,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -2560,15 +5563,15 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
       <c r="E6" s="5"/>
       <c r="F6" s="9" t="s">
         <v>22</v>
@@ -2576,127 +5579,127 @@
       <c r="G6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>1</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
       <c r="E7" s="2"/>
       <c r="F7" s="6">
         <v>1</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
       <c r="E8" s="2"/>
       <c r="F8" s="6">
         <v>2</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-    </row>
-    <row r="9" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="46"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+    </row>
+    <row r="9" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="6">
         <v>3</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-    </row>
-    <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="46"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+    </row>
+    <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="13"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="6">
         <v>4</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-    </row>
-    <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="46"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+    </row>
+    <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="13"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="6">
         <v>5</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-    </row>
-    <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="46"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+    </row>
+    <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="6">
         <v>6</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-    </row>
-    <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="46"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+    </row>
+    <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="6">
         <v>7</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2708,7 +5711,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>17</v>
       </c>
@@ -2724,263 +5727,263 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="17" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="18" t="s">
+    <row r="17" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="44" t="s">
+      <c r="C17" s="23"/>
+      <c r="D17" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="45"/>
-      <c r="F17" s="18" t="s">
+      <c r="E17" s="32"/>
+      <c r="F17" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="27" t="s">
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="J17" s="28"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="37"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="30"/>
-    </row>
-    <row r="19" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J17" s="37"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="23"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="39"/>
+    </row>
+    <row r="19" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>1</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="20" t="s">
+      <c r="C19" s="28"/>
+      <c r="D19" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20" t="s">
+      <c r="E19" s="15"/>
+      <c r="F19" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19" s="17"/>
-    </row>
-    <row r="20" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="19"/>
+    </row>
+    <row r="20" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>2</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="20" t="s">
+      <c r="C20" s="45"/>
+      <c r="D20" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20" t="s">
+      <c r="E20" s="15"/>
+      <c r="F20" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20" s="17"/>
-    </row>
-    <row r="21" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="19"/>
+    </row>
+    <row r="21" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>3</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="20" t="s">
+      <c r="C21" s="45"/>
+      <c r="D21" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20" t="s">
+      <c r="E21" s="15"/>
+      <c r="F21" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21" s="17"/>
-    </row>
-    <row r="22" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="19"/>
+    </row>
+    <row r="22" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>4</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="20" t="s">
+      <c r="C22" s="45"/>
+      <c r="D22" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20" t="s">
+      <c r="E22" s="15"/>
+      <c r="F22" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J22" s="17"/>
-    </row>
-    <row r="23" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" s="19"/>
+    </row>
+    <row r="23" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>5</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="20" t="s">
+      <c r="C23" s="45"/>
+      <c r="D23" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20" t="s">
+      <c r="E23" s="15"/>
+      <c r="F23" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23" s="17"/>
-    </row>
-    <row r="24" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="19"/>
+    </row>
+    <row r="24" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>6</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="20" t="s">
+      <c r="C24" s="45"/>
+      <c r="D24" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20" t="s">
+      <c r="E24" s="15"/>
+      <c r="F24" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J24" s="17"/>
-    </row>
-    <row r="25" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="19"/>
+    </row>
+    <row r="25" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>7</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="20" t="s">
+      <c r="C25" s="45"/>
+      <c r="D25" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20" t="s">
+      <c r="E25" s="15"/>
+      <c r="F25" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J25" s="17"/>
-    </row>
-    <row r="26" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" s="19"/>
+    </row>
+    <row r="26" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>8</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="20" t="s">
+      <c r="C26" s="16"/>
+      <c r="D26" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20" t="s">
+      <c r="E26" s="15"/>
+      <c r="F26" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J26" s="17"/>
-    </row>
-    <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" s="19"/>
+    </row>
+    <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>9</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="20" t="s">
+      <c r="C27" s="16"/>
+      <c r="D27" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20" t="s">
+      <c r="E27" s="15"/>
+      <c r="F27" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J27" s="17"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" s="19"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="13"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B28" s="17"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="13"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B29" s="17"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -2994,6 +5997,69 @@
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="D17:E18"/>
+    <mergeCell ref="F17:H18"/>
+    <mergeCell ref="I17:J18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:J26"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="F27:H27"/>
@@ -3002,10 +6068,1218 @@
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="F28:H28"/>
     <mergeCell ref="I28:J28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD02B36-17D2-4FBD-865B-0B06B47DC806}">
+  <dimension ref="A1:J28"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="9.109375" style="1"/>
+    <col min="3" max="3" width="11.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="1"/>
+    <col min="5" max="5" width="12.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="1"/>
+    <col min="7" max="7" width="8.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="3.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="26"/>
+      <c r="F1" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="F2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="15"/>
+      <c r="H2" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="34"/>
+      <c r="J2" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="21"/>
+      <c r="F4" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="41"/>
+      <c r="H4" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="34"/>
+      <c r="J4" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>1</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="32"/>
+      <c r="F12" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="37"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="23"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="39"/>
+    </row>
+    <row r="14" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>1</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="19"/>
+    </row>
+    <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>2</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="45"/>
+      <c r="D15" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="19"/>
+    </row>
+    <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>3</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="45"/>
+      <c r="D16" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="19"/>
+    </row>
+    <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>4</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="45"/>
+      <c r="D17" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="19"/>
+    </row>
+    <row r="18" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>5</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="45"/>
+      <c r="D18" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="19"/>
+    </row>
+    <row r="19" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>6</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="19"/>
+    </row>
+    <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>7</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="19"/>
+    </row>
+    <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>8</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="19"/>
+    </row>
+    <row r="22" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>9</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="45"/>
+      <c r="D22" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" s="19"/>
+    </row>
+    <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>10</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="19"/>
+    </row>
+    <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>11</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="19"/>
+    </row>
+    <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>12</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" s="45"/>
+      <c r="F25" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" s="19"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="13"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="13"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="78">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="D12:E13"/>
+    <mergeCell ref="F12:H13"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:J26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0C5D36-0623-4645-868C-5360A26786D7}">
+  <dimension ref="A1:K30"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="63"/>
+      <c r="F1" s="64" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="66"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="61"/>
+      <c r="C2" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="61"/>
+      <c r="F2" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="66"/>
+      <c r="H2" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="68"/>
+      <c r="J2" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+    </row>
+    <row r="4" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="68"/>
+      <c r="C4" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="68"/>
+      <c r="F4" s="69">
+        <v>44663</v>
+      </c>
+      <c r="G4" s="70"/>
+      <c r="H4" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="68"/>
+      <c r="J4" s="50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="72"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="61"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="75">
+        <v>1</v>
+      </c>
+      <c r="B7" s="78" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="75">
+        <v>1</v>
+      </c>
+      <c r="G7" s="85" t="s">
+        <v>96</v>
+      </c>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="95"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="76"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="88" t="s">
+        <v>97</v>
+      </c>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="95"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="76"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="88" t="s">
+        <v>98</v>
+      </c>
+      <c r="H9" s="89"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="95"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="77"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="91" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" s="92"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="95"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="57"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="66"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="47"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="96" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="97"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="59"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="98" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="100" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="101"/>
+      <c r="D15" s="104" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="105"/>
+      <c r="F15" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="108"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="108"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="99"/>
+      <c r="B16" s="102"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="109"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="102"/>
+      <c r="J16" s="109"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="75">
+        <v>1</v>
+      </c>
+      <c r="B17" s="110" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="111"/>
+      <c r="D17" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="114"/>
+      <c r="F17" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="79"/>
+      <c r="H17" s="114"/>
+      <c r="I17" s="116" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="117"/>
+      <c r="K17" s="94"/>
+    </row>
+    <row r="18" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="77"/>
+      <c r="B18" s="112" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="113"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="115"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="119"/>
+      <c r="K18" s="94"/>
+    </row>
+    <row r="19" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="57">
+        <v>2</v>
+      </c>
+      <c r="B19" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="66"/>
+      <c r="D19" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="66"/>
+      <c r="F19" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="65"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="120" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="121"/>
+    </row>
+    <row r="20" spans="1:11" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="57">
+        <v>3</v>
+      </c>
+      <c r="B20" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="66"/>
+      <c r="D20" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" s="66"/>
+      <c r="F20" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="G20" s="65"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="120" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="121"/>
+    </row>
+    <row r="21" spans="1:11" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="57">
+        <v>4</v>
+      </c>
+      <c r="B21" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="66"/>
+      <c r="D21" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" s="66"/>
+      <c r="F21" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="G21" s="65"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="120" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="121"/>
+    </row>
+    <row r="22" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="57">
+        <v>5</v>
+      </c>
+      <c r="B22" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="66"/>
+      <c r="D22" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" s="66"/>
+      <c r="F22" s="122" t="s">
+        <v>110</v>
+      </c>
+      <c r="G22" s="123"/>
+      <c r="H22" s="124"/>
+      <c r="I22" s="120" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" s="121"/>
+    </row>
+    <row r="23" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="57">
+        <v>6</v>
+      </c>
+      <c r="B23" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="66"/>
+      <c r="D23" s="64" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" s="66"/>
+      <c r="F23" s="125" t="s">
+        <v>112</v>
+      </c>
+      <c r="G23" s="126"/>
+      <c r="H23" s="127"/>
+      <c r="I23" s="120" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="121"/>
+    </row>
+    <row r="24" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="57">
+        <v>7</v>
+      </c>
+      <c r="B24" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="66"/>
+      <c r="D24" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" s="66"/>
+      <c r="F24" s="128" t="s">
+        <v>114</v>
+      </c>
+      <c r="G24" s="129"/>
+      <c r="H24" s="130"/>
+      <c r="I24" s="120" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="121"/>
+    </row>
+    <row r="25" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="57">
+        <v>8</v>
+      </c>
+      <c r="B25" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" s="66"/>
+      <c r="D25" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="E25" s="66"/>
+      <c r="F25" s="122" t="s">
+        <v>116</v>
+      </c>
+      <c r="G25" s="123"/>
+      <c r="H25" s="124"/>
+      <c r="I25" s="120" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" s="121"/>
+    </row>
+    <row r="26" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="57">
+        <v>9</v>
+      </c>
+      <c r="B26" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="66"/>
+      <c r="D26" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" s="66"/>
+      <c r="F26" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="G26" s="65"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="120" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" s="121"/>
+    </row>
+    <row r="27" spans="1:11" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="57">
+        <v>10</v>
+      </c>
+      <c r="B27" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="66"/>
+      <c r="D27" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" s="66"/>
+      <c r="F27" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="G27" s="65"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="120" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" s="121"/>
+    </row>
+    <row r="28" spans="1:11" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="57">
+        <v>11</v>
+      </c>
+      <c r="B28" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="66"/>
+      <c r="D28" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28" s="66"/>
+      <c r="F28" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="G28" s="65"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="120" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" s="121"/>
+    </row>
+    <row r="29" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="57">
+        <v>12</v>
+      </c>
+      <c r="B29" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="66"/>
+      <c r="D29" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" s="66"/>
+      <c r="F29" s="122" t="s">
+        <v>110</v>
+      </c>
+      <c r="G29" s="123"/>
+      <c r="H29" s="124"/>
+      <c r="I29" s="120" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" s="121"/>
+    </row>
+    <row r="30" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="57">
+        <v>13</v>
+      </c>
+      <c r="B30" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" s="66"/>
+      <c r="D30" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" s="66"/>
+      <c r="F30" s="125" t="s">
+        <v>117</v>
+      </c>
+      <c r="G30" s="126"/>
+      <c r="H30" s="127"/>
+      <c r="I30" s="120" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" s="121"/>
+    </row>
+  </sheetData>
+  <mergeCells count="85">
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="I29:J29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:J28"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="F25:H25"/>
@@ -3030,6 +7304,7 @@
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="F22:H22"/>
     <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K17:K18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="F19:H19"/>
@@ -3038,17 +7313,26 @@
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:H20"/>
     <mergeCell ref="I20:J20"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="G13:J13"/>
     <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
     <mergeCell ref="D17:E18"/>
     <mergeCell ref="F17:H18"/>
     <mergeCell ref="I17:J18"/>
-    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="F15:H16"/>
+    <mergeCell ref="I15:J16"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
     <mergeCell ref="G7:J7"/>
-    <mergeCell ref="B8:D8"/>
     <mergeCell ref="G8:J8"/>
     <mergeCell ref="G9:J9"/>
     <mergeCell ref="G10:J10"/>
@@ -3067,551 +7351,1861 @@
     <mergeCell ref="H2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD02B36-17D2-4FBD-865B-0B06B47DC806}">
-  <dimension ref="A1:J28"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BBC48D-0CC1-48CC-968C-61086643642E}">
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="12.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="8.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="3.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" s="25" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="E1" s="63"/>
+      <c r="F1" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="66"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="61"/>
+      <c r="C2" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="61"/>
+      <c r="F2" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="G2" s="66"/>
+      <c r="H2" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="68"/>
+      <c r="J2" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+    </row>
+    <row r="4" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="68"/>
+      <c r="C4" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="68"/>
+      <c r="F4" s="69">
+        <v>44693</v>
+      </c>
+      <c r="G4" s="70"/>
+      <c r="H4" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="68"/>
+      <c r="J4" s="50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="72"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="61"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="57">
+        <v>1</v>
+      </c>
+      <c r="B7" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="57">
+        <v>1</v>
+      </c>
+      <c r="G7" s="131" t="s">
+        <v>120</v>
+      </c>
+      <c r="H7" s="132"/>
+      <c r="I7" s="132"/>
+      <c r="J7" s="133"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="57"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="66"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="47"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="96" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="97"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="59"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="98" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="100" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="101"/>
+      <c r="D12" s="104" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="105"/>
+      <c r="F12" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="108"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="108"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="99"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="109"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="75">
+        <v>1</v>
+      </c>
+      <c r="B14" s="110" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="111"/>
+      <c r="D14" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="114"/>
+      <c r="F14" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="79"/>
+      <c r="H14" s="114"/>
+      <c r="I14" s="116" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="117"/>
+      <c r="K14" s="94"/>
+    </row>
+    <row r="15" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="77"/>
+      <c r="B15" s="112" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="113"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="118"/>
+      <c r="J15" s="119"/>
+      <c r="K15" s="94"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="57">
+        <v>2</v>
+      </c>
+      <c r="B16" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="66"/>
+      <c r="D16" s="64" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" s="66"/>
+      <c r="F16" s="122" t="s">
+        <v>122</v>
+      </c>
+      <c r="G16" s="123"/>
+      <c r="H16" s="124"/>
+      <c r="I16" s="120" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="121"/>
+    </row>
+    <row r="17" spans="1:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="57">
+        <v>3</v>
+      </c>
+      <c r="B17" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="66"/>
+      <c r="D17" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" s="66"/>
+      <c r="F17" s="122" t="s">
+        <v>116</v>
+      </c>
+      <c r="G17" s="123"/>
+      <c r="H17" s="124"/>
+      <c r="I17" s="120" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="121"/>
+    </row>
+    <row r="18" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="57">
+        <v>4</v>
+      </c>
+      <c r="B18" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="66"/>
+      <c r="D18" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="66"/>
+      <c r="F18" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="65"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="120" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="121"/>
+    </row>
+    <row r="19" spans="1:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="57">
+        <v>5</v>
+      </c>
+      <c r="B19" s="64" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" s="66"/>
+      <c r="D19" s="64" t="s">
+        <v>124</v>
+      </c>
+      <c r="E19" s="66"/>
+      <c r="F19" s="122" t="s">
+        <v>124</v>
+      </c>
+      <c r="G19" s="123"/>
+      <c r="H19" s="124"/>
+      <c r="I19" s="120" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="121"/>
+    </row>
+    <row r="20" spans="1:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="57">
+        <v>6</v>
+      </c>
+      <c r="B20" s="64" t="s">
+        <v>125</v>
+      </c>
+      <c r="C20" s="66"/>
+      <c r="D20" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" s="66"/>
+      <c r="F20" s="122" t="s">
+        <v>110</v>
+      </c>
+      <c r="G20" s="123"/>
+      <c r="H20" s="124"/>
+      <c r="I20" s="120" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="121"/>
+    </row>
+    <row r="21" spans="1:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="57">
+        <v>7</v>
+      </c>
+      <c r="B21" s="64" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="66"/>
+      <c r="D21" s="64" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21" s="66"/>
+      <c r="F21" s="122" t="s">
+        <v>127</v>
+      </c>
+      <c r="G21" s="123"/>
+      <c r="H21" s="124"/>
+      <c r="I21" s="120" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="121"/>
+    </row>
+  </sheetData>
+  <mergeCells count="54">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D14:E15"/>
+    <mergeCell ref="F14:H15"/>
+    <mergeCell ref="I14:J15"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="D12:E13"/>
+    <mergeCell ref="F12:H13"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF41ABC3-0984-4C03-BD90-6303C938523B}">
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="63"/>
+      <c r="F1" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="66"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="61"/>
+      <c r="C2" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="33" t="s">
+      <c r="E2" s="61"/>
+      <c r="F2" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="66"/>
+      <c r="H2" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="11">
+      <c r="I2" s="68"/>
+      <c r="J2" s="48">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="35" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+    </row>
+    <row r="4" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="68"/>
+      <c r="C4" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="68"/>
+      <c r="F4" s="69">
+        <v>44724</v>
+      </c>
+      <c r="G4" s="70"/>
+      <c r="H4" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="68"/>
+      <c r="J4" s="50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="72"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="61"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="57">
+        <v>1</v>
+      </c>
+      <c r="B7" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="57">
+        <v>1</v>
+      </c>
+      <c r="G7" s="131" t="s">
+        <v>120</v>
+      </c>
+      <c r="H7" s="132"/>
+      <c r="I7" s="132"/>
+      <c r="J7" s="133"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="57"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="66"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="47"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="96" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="97"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="59"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="98" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="100" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="101"/>
+      <c r="D12" s="104" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="105"/>
+      <c r="F12" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="108"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="108"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="99"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="109"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="75">
+        <v>1</v>
+      </c>
+      <c r="B14" s="110" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="111"/>
+      <c r="D14" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="114"/>
+      <c r="F14" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="79"/>
+      <c r="H14" s="114"/>
+      <c r="I14" s="116" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="117"/>
+      <c r="K14" s="94"/>
+    </row>
+    <row r="15" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="77"/>
+      <c r="B15" s="112" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="113"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="118"/>
+      <c r="J15" s="119"/>
+      <c r="K15" s="94"/>
+    </row>
+    <row r="16" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="57">
+        <v>2</v>
+      </c>
+      <c r="B16" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="66"/>
+      <c r="D16" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" s="66"/>
+      <c r="F16" s="128" t="s">
+        <v>114</v>
+      </c>
+      <c r="G16" s="129"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="120" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="121"/>
+    </row>
+    <row r="17" spans="1:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="57">
+        <v>3</v>
+      </c>
+      <c r="B17" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="66"/>
+      <c r="D17" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" s="66"/>
+      <c r="F17" s="128" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="129"/>
+      <c r="H17" s="130"/>
+      <c r="I17" s="120" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="121"/>
+    </row>
+    <row r="18" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="57">
+        <v>4</v>
+      </c>
+      <c r="B18" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="66"/>
+      <c r="D18" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="66"/>
+      <c r="F18" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="65"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="120" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="121"/>
+    </row>
+    <row r="19" spans="1:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="57">
+        <v>5</v>
+      </c>
+      <c r="B19" s="64" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="66"/>
+      <c r="D19" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="E19" s="66"/>
+      <c r="F19" s="128" t="s">
+        <v>110</v>
+      </c>
+      <c r="G19" s="129"/>
+      <c r="H19" s="130"/>
+      <c r="I19" s="120" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="121"/>
+    </row>
+    <row r="20" spans="1:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="57">
+        <v>6</v>
+      </c>
+      <c r="B20" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" s="66"/>
+      <c r="D20" s="64" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" s="66"/>
+      <c r="F20" s="128" t="s">
+        <v>127</v>
+      </c>
+      <c r="G20" s="129"/>
+      <c r="H20" s="130"/>
+      <c r="I20" s="120" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="121"/>
+    </row>
+  </sheetData>
+  <mergeCells count="50">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D14:E15"/>
+    <mergeCell ref="F14:H15"/>
+    <mergeCell ref="I14:J15"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="D12:E13"/>
+    <mergeCell ref="F12:H13"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36EC32C-34DB-4C6C-80A8-4624365D35B3}">
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="63"/>
+      <c r="F1" s="64" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="66"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="61"/>
+      <c r="C2" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="61"/>
+      <c r="F2" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="G2" s="66"/>
+      <c r="H2" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="68"/>
+      <c r="J2" s="48">
         <v>1</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="32"/>
-      <c r="H4" s="33" t="s">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+    </row>
+    <row r="4" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="68"/>
+      <c r="C4" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="68"/>
+      <c r="F4" s="69">
+        <v>44663</v>
+      </c>
+      <c r="G4" s="70"/>
+      <c r="H4" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="34"/>
-      <c r="J4" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="I4" s="68"/>
+      <c r="J4" s="50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="9" t="s">
+      <c r="C6" s="72"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="61"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="75">
         <v>1</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="6">
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="75">
         <v>1</v>
       </c>
-      <c r="G7" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+      <c r="G7" s="85" t="s">
+        <v>96</v>
+      </c>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="95"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="76"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="88" t="s">
+        <v>97</v>
+      </c>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="95"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="76"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="88" t="s">
+        <v>98</v>
+      </c>
+      <c r="H9" s="89"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="95"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="77"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="91" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" s="92"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="95"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="57"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="66"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="47"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
+      <c r="B13" s="96" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="97"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="59"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B15" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="44" t="s">
+      <c r="C15" s="101"/>
+      <c r="D15" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="45"/>
-      <c r="F12" s="18" t="s">
+      <c r="E15" s="105"/>
+      <c r="F15" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="27" t="s">
+      <c r="G15" s="108"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="28"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="37"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="30"/>
-    </row>
-    <row r="14" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+      <c r="J15" s="108"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="99"/>
+      <c r="B16" s="102"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="109"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="102"/>
+      <c r="J16" s="109"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="75">
         <v>1</v>
       </c>
-      <c r="B14" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="20" t="s">
+      <c r="B17" s="110" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="111"/>
+      <c r="D17" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20" t="s">
+      <c r="E17" s="114"/>
+      <c r="F17" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="17"/>
-    </row>
-    <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
+      <c r="G17" s="79"/>
+      <c r="H17" s="114"/>
+      <c r="I17" s="116" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="117"/>
+      <c r="K17" s="94"/>
+    </row>
+    <row r="18" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="77"/>
+      <c r="B18" s="112" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="113"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="115"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="119"/>
+      <c r="K18" s="94"/>
+    </row>
+    <row r="19" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="57">
         <v>2</v>
       </c>
-      <c r="B15" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" s="17"/>
-    </row>
-    <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
+      <c r="B19" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="66"/>
+      <c r="D19" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="66"/>
+      <c r="F19" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="65"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="120" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="121"/>
+    </row>
+    <row r="20" spans="1:11" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="57">
         <v>3</v>
       </c>
-      <c r="B16" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" s="17"/>
-    </row>
-    <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
+      <c r="B20" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="66"/>
+      <c r="D20" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" s="66"/>
+      <c r="F20" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="G20" s="65"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="120" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="121"/>
+    </row>
+    <row r="21" spans="1:11" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="57">
         <v>4</v>
       </c>
-      <c r="B17" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J17" s="17"/>
-    </row>
-    <row r="18" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
+      <c r="B21" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="66"/>
+      <c r="D21" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" s="66"/>
+      <c r="F21" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="G21" s="65"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="120" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="121"/>
+    </row>
+    <row r="22" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="57">
         <v>5</v>
       </c>
-      <c r="B18" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" s="17"/>
-    </row>
-    <row r="19" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
+      <c r="B22" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="66"/>
+      <c r="D22" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" s="66"/>
+      <c r="F22" s="122" t="s">
+        <v>110</v>
+      </c>
+      <c r="G22" s="123"/>
+      <c r="H22" s="124"/>
+      <c r="I22" s="120" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" s="121"/>
+    </row>
+    <row r="23" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="57">
         <v>6</v>
       </c>
-      <c r="B19" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19" s="17"/>
-    </row>
-    <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
+      <c r="B23" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="66"/>
+      <c r="D23" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" s="66"/>
+      <c r="F23" s="125" t="s">
+        <v>117</v>
+      </c>
+      <c r="G23" s="126"/>
+      <c r="H23" s="127"/>
+      <c r="I23" s="120" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="121"/>
+    </row>
+  </sheetData>
+  <mergeCells count="57">
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D17:E18"/>
+    <mergeCell ref="F17:H18"/>
+    <mergeCell ref="I17:J18"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="F15:H16"/>
+    <mergeCell ref="I15:J16"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E83C2D77-6CC3-4942-948D-9AA9B2163CF8}">
+  <dimension ref="A1:K24"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20" s="17"/>
-    </row>
-    <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
+      <c r="B1" s="61"/>
+      <c r="C1" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="61"/>
+      <c r="F1" s="64" t="s">
+        <v>133</v>
+      </c>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="66"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21" s="17"/>
-    </row>
-    <row r="22" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
+      <c r="B2" s="61"/>
+      <c r="C2" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="61"/>
+      <c r="F2" s="64" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" s="66"/>
+      <c r="H2" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J22" s="17"/>
-    </row>
-    <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
+      <c r="I2" s="68"/>
+      <c r="J2" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+    </row>
+    <row r="4" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="68"/>
+      <c r="C4" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="68"/>
+      <c r="F4" s="135" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="136"/>
+      <c r="H4" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="68"/>
+      <c r="J4" s="50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="72"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="61"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="57">
+        <v>1</v>
+      </c>
+      <c r="B7" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="65"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="57">
+        <v>1</v>
+      </c>
+      <c r="G7" s="64" t="s">
+        <v>135</v>
+      </c>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="66"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="57"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="56">
+        <v>2</v>
+      </c>
+      <c r="G8" s="137" t="s">
+        <v>136</v>
+      </c>
+      <c r="H8" s="138"/>
+      <c r="I8" s="138"/>
+      <c r="J8" s="138"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="47"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="134">
+        <v>3</v>
+      </c>
+      <c r="G9" s="139" t="s">
+        <v>137</v>
+      </c>
+      <c r="H9" s="140"/>
+      <c r="I9" s="140"/>
+      <c r="J9" s="140"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="59"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="98" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="100" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="101"/>
+      <c r="D12" s="104" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="105"/>
+      <c r="F12" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="108"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="108"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="99"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="109"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="75">
+        <v>1</v>
+      </c>
+      <c r="B14" s="110" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="111"/>
+      <c r="D14" s="78" t="s">
+        <v>138</v>
+      </c>
+      <c r="E14" s="114"/>
+      <c r="F14" s="78" t="s">
+        <v>138</v>
+      </c>
+      <c r="G14" s="79"/>
+      <c r="H14" s="114"/>
+      <c r="I14" s="116" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="117"/>
+      <c r="K14" s="94"/>
+    </row>
+    <row r="15" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="77"/>
+      <c r="B15" s="112" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="113"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="118"/>
+      <c r="J15" s="119"/>
+      <c r="K15" s="94"/>
+    </row>
+    <row r="16" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="57">
+        <v>2</v>
+      </c>
+      <c r="B16" s="64" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" s="66"/>
+      <c r="D16" s="64" t="s">
+        <v>140</v>
+      </c>
+      <c r="E16" s="66"/>
+      <c r="F16" s="64" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" s="65"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="120" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="121"/>
+    </row>
+    <row r="17" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="57">
+        <v>3</v>
+      </c>
+      <c r="B17" s="64" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="66"/>
+      <c r="D17" s="64" t="s">
+        <v>142</v>
+      </c>
+      <c r="E17" s="66"/>
+      <c r="F17" s="64" t="s">
+        <v>142</v>
+      </c>
+      <c r="G17" s="65"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="120" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="121"/>
+    </row>
+    <row r="18" spans="1:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="57">
+        <v>4</v>
+      </c>
+      <c r="B18" s="64" t="s">
+        <v>143</v>
+      </c>
+      <c r="C18" s="66"/>
+      <c r="D18" s="64" t="s">
+        <v>144</v>
+      </c>
+      <c r="E18" s="66"/>
+      <c r="F18" s="64" t="s">
+        <v>144</v>
+      </c>
+      <c r="G18" s="65"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="120" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="121"/>
+    </row>
+    <row r="19" spans="1:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="57">
+        <v>5</v>
+      </c>
+      <c r="B19" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" s="66"/>
+      <c r="D19" s="64" t="s">
+        <v>146</v>
+      </c>
+      <c r="E19" s="66"/>
+      <c r="F19" s="64" t="s">
+        <v>146</v>
+      </c>
+      <c r="G19" s="65"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="120" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="121"/>
+    </row>
+    <row r="20" spans="1:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="57">
+        <v>6</v>
+      </c>
+      <c r="B20" s="64" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" s="66"/>
+      <c r="D20" s="64" t="s">
+        <v>148</v>
+      </c>
+      <c r="E20" s="66"/>
+      <c r="F20" s="64" t="s">
+        <v>148</v>
+      </c>
+      <c r="G20" s="65"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="120" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="121"/>
+    </row>
+    <row r="21" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="57">
+        <v>7</v>
+      </c>
+      <c r="B21" s="64" t="s">
+        <v>149</v>
+      </c>
+      <c r="C21" s="66"/>
+      <c r="D21" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="E21" s="66"/>
+      <c r="F21" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="G21" s="65"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="120" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="121"/>
+    </row>
+    <row r="22" spans="1:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="57">
+        <v>8</v>
+      </c>
+      <c r="B22" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" s="66"/>
+      <c r="D22" s="64" t="s">
+        <v>152</v>
+      </c>
+      <c r="E22" s="66"/>
+      <c r="F22" s="64" t="s">
+        <v>152</v>
+      </c>
+      <c r="G22" s="65"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="120" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" s="121"/>
+    </row>
+    <row r="23" spans="1:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="57">
+        <v>9</v>
+      </c>
+      <c r="B23" s="64" t="s">
+        <v>153</v>
+      </c>
+      <c r="C23" s="66"/>
+      <c r="D23" s="64" t="s">
+        <v>154</v>
+      </c>
+      <c r="E23" s="66"/>
+      <c r="F23" s="64" t="s">
+        <v>154</v>
+      </c>
+      <c r="G23" s="65"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="120" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="121"/>
+    </row>
+    <row r="24" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="57">
         <v>10</v>
       </c>
-      <c r="B23" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23" s="17"/>
-    </row>
-    <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
-        <v>11</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J24" s="17"/>
-    </row>
-    <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="6">
-        <v>12</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="E25" s="24"/>
-      <c r="F25" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J25" s="17"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="13"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
+      <c r="B24" s="64" t="s">
+        <v>155</v>
+      </c>
+      <c r="C24" s="66"/>
+      <c r="D24" s="64" t="s">
+        <v>156</v>
+      </c>
+      <c r="E24" s="66"/>
+      <c r="F24" s="64" t="s">
+        <v>156</v>
+      </c>
+      <c r="G24" s="65"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="120" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="121"/>
     </row>
   </sheetData>
-  <mergeCells count="78">
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:J27"/>
+  <mergeCells count="66">
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="F24:H24"/>
@@ -3640,31 +9234,31 @@
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="I19:J19"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:J16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="F17:H17"/>
     <mergeCell ref="I17:J17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D14:E15"/>
+    <mergeCell ref="F14:H15"/>
+    <mergeCell ref="I14:J15"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G9:J9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:C13"/>
     <mergeCell ref="D12:E13"/>
     <mergeCell ref="F12:H13"/>
     <mergeCell ref="I12:J13"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:J8"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:G4"/>
@@ -3681,64 +9275,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0C5D36-0623-4645-868C-5360A26786D7}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BBC48D-0CC1-48CC-968C-61086643642E}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E83C2D77-6CC3-4942-948D-9AA9B2163CF8}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F823E5-2997-470B-BC25-C0CC5A72AE85}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3039AA2-D3FC-4335-A127-225CD1AD243A}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>